--- a/biology/Médecine/Ion_N._Petrovici/Ion_N._Petrovici.xlsx
+++ b/biology/Médecine/Ion_N._Petrovici/Ion_N._Petrovici.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ion N. Petrovici, né le 19 août 1929 à Ploiești (Roumanie) et mort le 19 février 2021[1], est un neurologue allemand d'origine roumaine. Il est professeur de neurologie et psychiatrie et Directeur de la Clinique neurologique Merheim de l'université de Cologne (Allemagne). On lui doit la description du Syndrome alterne asphygmo-pyramidal dans les occlusions de l'artère carotidienne.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ion N. Petrovici, né le 19 août 1929 à Ploiești (Roumanie) et mort le 19 février 2021, est un neurologue allemand d'origine roumaine. Il est professeur de neurologie et psychiatrie et Directeur de la Clinique neurologique Merheim de l'université de Cologne (Allemagne). On lui doit la description du Syndrome alterne asphygmo-pyramidal dans les occlusions de l'artère carotidienne.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ion N. Petrovici fréquente le lycée Saints Pierre et Paul dans sa ville natale et obtient en 1947 le baccalauréat ès lettres.
 Après avoir fini ses études de médecine à l'université de Bucarest (Roumanie), on lui décerne en 1953 le titre de docteur ès médecine avec une thèse sur les Discopathie dégénératives.
@@ -521,8 +535,43 @@
 En 1978 il reçoit la venia legendi et en 1983 il est nommé professeur de neurologie et psychiatrie à l'université de Cologne. Petrovici devient en 1985 directeur de la clinique neurologique Merheim de l'université de Cologne, où il restera jusqu'à sa retraite en 1994.
 Ion N. Petrovici est membre actif dans nombreuses sociétés scientifiques: Deutsche Gesellschaft für Neurologie, Deutsche Gesellschaft für Klinische Neurophysiologe, Società Italiana di Neurologia, Societatea Română de Neuroendocrinologe, European Neurological Society, New York Academy of Sciences et Fellow of the Royal Society of Medicine (Londres).
 En 1994 il a été nommé membre honorifique de l'Académie roumaine de sciences médicales et en 2003 reçoit la médaille commémorative « G. Marinescu » de l'Académie roumaine.
-Syndrome alterne asphygmo-pyramidal
-En 1962, Ion N. Petrovici décrit avec Alexandru Fradis le syndrome alterne asphygmo-pyramidal : en cas d'une occlusion de l'artère carotidienne on constate une asphygmie des branches collatérales de l'axe carotidien du côté de l'obstruction, dans la présence d'une hémiparésie controlatérale (Psychiatria et Neurologia-Basel, 1962,144:137-155).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Ion_N._Petrovici</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ion_N._Petrovici</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Syndrome alterne asphygmo-pyramidal</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1962, Ion N. Petrovici décrit avec Alexandru Fradis le syndrome alterne asphygmo-pyramidal : en cas d'une occlusion de l'artère carotidienne on constate une asphygmie des branches collatérales de l'axe carotidien du côté de l'obstruction, dans la présence d'une hémiparésie controlatérale (Psychiatria et Neurologia-Basel, 1962,144:137-155).
 </t>
         </is>
       </c>
